--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cd5l-Cd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -88,13 +94,7 @@
     <t>Cd5</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.17744</v>
+        <v>0.02581033333333333</v>
       </c>
       <c r="H2">
-        <v>6.53232</v>
+        <v>0.077431</v>
       </c>
       <c r="I2">
-        <v>0.6849679343335416</v>
+        <v>0.002094982317000227</v>
       </c>
       <c r="J2">
-        <v>0.6849679343335416</v>
+        <v>0.002114256287257723</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8894906666666667</v>
+        <v>0.289024</v>
       </c>
       <c r="N2">
-        <v>2.668472</v>
+        <v>0.867072</v>
       </c>
       <c r="O2">
-        <v>0.1316647303664537</v>
+        <v>0.04033306108839612</v>
       </c>
       <c r="P2">
-        <v>0.1368307050811258</v>
+        <v>0.04070052412476965</v>
       </c>
       <c r="Q2">
-        <v>1.936812557226667</v>
+        <v>0.007459805781333334</v>
       </c>
       <c r="R2">
-        <v>17.43131301504</v>
+        <v>0.067138252032</v>
       </c>
       <c r="S2">
-        <v>0.0901861183836925</v>
+        <v>8.449704977067979E-05</v>
       </c>
       <c r="T2">
-        <v>0.09372464541282077</v>
+        <v>8.605133902547884E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.17744</v>
+        <v>0.02581033333333333</v>
       </c>
       <c r="H3">
-        <v>6.53232</v>
+        <v>0.077431</v>
       </c>
       <c r="I3">
-        <v>0.6849679343335416</v>
+        <v>0.002094982317000227</v>
       </c>
       <c r="J3">
-        <v>0.6849679343335416</v>
+        <v>0.002114256287257723</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>5.787053999999999</v>
       </c>
       <c r="O3">
-        <v>0.2855382797818778</v>
+        <v>0.2691928726839837</v>
       </c>
       <c r="P3">
-        <v>0.2967416106155693</v>
+        <v>0.271645412305258</v>
       </c>
       <c r="Q3">
-        <v>4.20032095392</v>
+        <v>0.049788597586</v>
       </c>
       <c r="R3">
-        <v>37.80288858528</v>
+        <v>0.448097378274</v>
       </c>
       <c r="S3">
-        <v>0.1955845656753457</v>
+        <v>0.0005639543081354392</v>
       </c>
       <c r="T3">
-        <v>0.2032584880541546</v>
+        <v>0.000574328020871108</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>2.17744</v>
+        <v>0.02581033333333333</v>
       </c>
       <c r="H4">
-        <v>6.53232</v>
+        <v>0.077431</v>
       </c>
       <c r="I4">
-        <v>0.6849679343335416</v>
+        <v>0.002094982317000227</v>
       </c>
       <c r="J4">
-        <v>0.6849679343335416</v>
+        <v>0.002114256287257723</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.949498666666667</v>
+        <v>2.251173666666667</v>
       </c>
       <c r="N4">
-        <v>5.848496</v>
+        <v>6.753521</v>
       </c>
       <c r="O4">
-        <v>0.2885698815236896</v>
+        <v>0.3141494305602834</v>
       </c>
       <c r="P4">
-        <v>0.2998921597618951</v>
+        <v>0.3170115565808127</v>
       </c>
       <c r="Q4">
-        <v>4.244916376746668</v>
+        <v>0.0581035427278889</v>
       </c>
       <c r="R4">
-        <v>38.20424739072</v>
+        <v>0.522931884551</v>
       </c>
       <c r="S4">
-        <v>0.1976611156581565</v>
+        <v>0.0006581375019194844</v>
       </c>
       <c r="T4">
-        <v>0.2054165131949298</v>
+        <v>0.0006702436766343405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>2.17744</v>
+        <v>0.02581033333333333</v>
       </c>
       <c r="H5">
-        <v>6.53232</v>
+        <v>0.077431</v>
       </c>
       <c r="I5">
-        <v>0.6849679343335416</v>
+        <v>0.002094982317000227</v>
       </c>
       <c r="J5">
-        <v>0.6849679343335416</v>
+        <v>0.002114256287257723</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.765177</v>
+        <v>0.194092</v>
       </c>
       <c r="N5">
-        <v>1.530354</v>
+        <v>0.388184</v>
       </c>
       <c r="O5">
-        <v>0.1132634969236461</v>
+        <v>0.02708537869785547</v>
       </c>
       <c r="P5">
-        <v>0.07847165600527987</v>
+        <v>0.01822143058113926</v>
       </c>
       <c r="Q5">
-        <v>1.66612700688</v>
+        <v>0.005009579217333334</v>
       </c>
       <c r="R5">
-        <v>9.99676204128</v>
+        <v>0.030057475304</v>
       </c>
       <c r="S5">
-        <v>0.07758186352318332</v>
+        <v>5.674338942126184E-05</v>
       </c>
       <c r="T5">
-        <v>0.05375056811766881</v>
+        <v>3.852477416900382E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>2.17744</v>
+        <v>0.02581033333333333</v>
       </c>
       <c r="H6">
-        <v>6.53232</v>
+        <v>0.077431</v>
       </c>
       <c r="I6">
-        <v>0.6849679343335416</v>
+        <v>0.002094982317000227</v>
       </c>
       <c r="J6">
-        <v>0.6849679343335416</v>
+        <v>0.002114256287257723</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.222540333333333</v>
+        <v>2.502625</v>
       </c>
       <c r="N6">
-        <v>3.667621</v>
+        <v>7.507875</v>
       </c>
       <c r="O6">
-        <v>0.1809636114043329</v>
+        <v>0.3492392569694812</v>
       </c>
       <c r="P6">
-        <v>0.1880638685361299</v>
+        <v>0.3524210764080203</v>
       </c>
       <c r="Q6">
-        <v>2.662008223413333</v>
+        <v>0.06459358545833334</v>
       </c>
       <c r="R6">
-        <v>23.95807401072</v>
+        <v>0.581342269125</v>
       </c>
       <c r="S6">
-        <v>0.1239542710931637</v>
+        <v>0.0007316500677533613</v>
       </c>
       <c r="T6">
-        <v>0.1288177195539676</v>
+        <v>0.0007451084765577911</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.001453333333333</v>
+        <v>2.712551666666666</v>
       </c>
       <c r="H7">
-        <v>3.00436</v>
+        <v>8.137654999999999</v>
       </c>
       <c r="I7">
-        <v>0.3150320656664583</v>
+        <v>0.2201733585624424</v>
       </c>
       <c r="J7">
-        <v>0.3150320656664584</v>
+        <v>0.2221989674327367</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8894906666666667</v>
+        <v>0.289024</v>
       </c>
       <c r="N7">
-        <v>2.668472</v>
+        <v>0.867072</v>
       </c>
       <c r="O7">
-        <v>0.1316647303664537</v>
+        <v>0.04033306108839612</v>
       </c>
       <c r="P7">
-        <v>0.1368307050811258</v>
+        <v>0.04070052412476965</v>
       </c>
       <c r="Q7">
-        <v>0.8907833931022222</v>
+        <v>0.7839925329066666</v>
       </c>
       <c r="R7">
-        <v>8.017050537919999</v>
+        <v>7.055932796159999</v>
       </c>
       <c r="S7">
-        <v>0.04147861198276116</v>
+        <v>0.008880265520936332</v>
       </c>
       <c r="T7">
-        <v>0.04310605966830502</v>
+        <v>0.009043614434495006</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.001453333333333</v>
+        <v>2.712551666666666</v>
       </c>
       <c r="H8">
-        <v>3.00436</v>
+        <v>8.137654999999999</v>
       </c>
       <c r="I8">
-        <v>0.3150320656664583</v>
+        <v>0.2201733585624424</v>
       </c>
       <c r="J8">
-        <v>0.3150320656664584</v>
+        <v>0.2221989674327367</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>5.787053999999999</v>
       </c>
       <c r="O8">
-        <v>0.2855382797818778</v>
+        <v>0.2691928726839837</v>
       </c>
       <c r="P8">
-        <v>0.2967416106155693</v>
+        <v>0.271645412305258</v>
       </c>
       <c r="Q8">
-        <v>1.93182150616</v>
+        <v>5.232560990929999</v>
       </c>
       <c r="R8">
-        <v>17.38639355544</v>
+        <v>47.09304891836999</v>
       </c>
       <c r="S8">
-        <v>0.08995371410653208</v>
+        <v>0.05926909887990464</v>
       </c>
       <c r="T8">
-        <v>0.09348312256141462</v>
+        <v>0.06035933012206837</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.001453333333333</v>
+        <v>2.712551666666666</v>
       </c>
       <c r="H9">
-        <v>3.00436</v>
+        <v>8.137654999999999</v>
       </c>
       <c r="I9">
-        <v>0.3150320656664583</v>
+        <v>0.2201733585624424</v>
       </c>
       <c r="J9">
-        <v>0.3150320656664584</v>
+        <v>0.2221989674327367</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.949498666666667</v>
+        <v>2.251173666666667</v>
       </c>
       <c r="N9">
-        <v>5.848496</v>
+        <v>6.753521</v>
       </c>
       <c r="O9">
-        <v>0.2885698815236896</v>
+        <v>0.3141494305602834</v>
       </c>
       <c r="P9">
-        <v>0.2998921597618951</v>
+        <v>0.3170115565808127</v>
       </c>
       <c r="Q9">
-        <v>1.952331938062222</v>
+        <v>6.106424881472777</v>
       </c>
       <c r="R9">
-        <v>17.57098744256</v>
+        <v>54.95782393325499</v>
       </c>
       <c r="S9">
-        <v>0.09090876586553306</v>
+        <v>0.06916733521693638</v>
       </c>
       <c r="T9">
-        <v>0.09447564656696537</v>
+        <v>0.07043964053650117</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,14 +1021,14 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
         <v>3</v>
       </c>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.001453333333333</v>
+        <v>2.712551666666666</v>
       </c>
       <c r="H10">
-        <v>3.00436</v>
+        <v>8.137654999999999</v>
       </c>
       <c r="I10">
-        <v>0.3150320656664583</v>
+        <v>0.2201733585624424</v>
       </c>
       <c r="J10">
-        <v>0.3150320656664584</v>
+        <v>0.2221989674327367</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.765177</v>
+        <v>0.194092</v>
       </c>
       <c r="N10">
-        <v>1.530354</v>
+        <v>0.388184</v>
       </c>
       <c r="O10">
-        <v>0.1132634969236461</v>
+        <v>0.02708537869785547</v>
       </c>
       <c r="P10">
-        <v>0.07847165600527987</v>
+        <v>0.01822143058113926</v>
       </c>
       <c r="Q10">
-        <v>0.76628905724</v>
+        <v>0.5264845780866666</v>
       </c>
       <c r="R10">
-        <v>4.59773434344</v>
+        <v>3.15890746852</v>
       </c>
       <c r="S10">
-        <v>0.03568163340046278</v>
+        <v>0.005963478795842471</v>
       </c>
       <c r="T10">
-        <v>0.02472108788761106</v>
+        <v>0.004048783060276436</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,681 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.712551666666666</v>
+      </c>
+      <c r="H11">
+        <v>8.137654999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.2201733585624424</v>
+      </c>
+      <c r="J11">
+        <v>0.2221989674327367</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.502625</v>
+      </c>
+      <c r="N11">
+        <v>7.507875</v>
+      </c>
+      <c r="O11">
+        <v>0.3492392569694812</v>
+      </c>
+      <c r="P11">
+        <v>0.3524210764080203</v>
+      </c>
+      <c r="Q11">
+        <v>6.788499614791666</v>
+      </c>
+      <c r="R11">
+        <v>61.09649653312499</v>
+      </c>
+      <c r="S11">
+        <v>0.07689318014882254</v>
+      </c>
+      <c r="T11">
+        <v>0.07830759927939572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.3369365</v>
+      </c>
+      <c r="H12">
+        <v>0.6738730000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.02734858168376801</v>
+      </c>
+      <c r="J12">
+        <v>0.01840012691381001</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.289024</v>
+      </c>
+      <c r="N12">
+        <v>0.867072</v>
+      </c>
+      <c r="O12">
+        <v>0.04033306108839612</v>
+      </c>
+      <c r="P12">
+        <v>0.04070052412476965</v>
+      </c>
+      <c r="Q12">
+        <v>0.09738273497600002</v>
+      </c>
+      <c r="R12">
+        <v>0.5842964098560001</v>
+      </c>
+      <c r="S12">
+        <v>0.001103052015732406</v>
+      </c>
+      <c r="T12">
+        <v>0.0007488948093543477</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.3369365</v>
+      </c>
+      <c r="H13">
+        <v>0.6738730000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.02734858168376801</v>
+      </c>
+      <c r="J13">
+        <v>0.01840012691381001</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.929018</v>
+      </c>
+      <c r="N13">
+        <v>5.787053999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.2691928726839837</v>
+      </c>
+      <c r="P13">
+        <v>0.271645412305258</v>
+      </c>
+      <c r="Q13">
+        <v>0.649956573357</v>
+      </c>
+      <c r="R13">
+        <v>3.899739440142</v>
+      </c>
+      <c r="S13">
+        <v>0.00736204326728609</v>
+      </c>
+      <c r="T13">
+        <v>0.004998310061970996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.3369365</v>
+      </c>
+      <c r="H14">
+        <v>0.6738730000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.02734858168376801</v>
+      </c>
+      <c r="J14">
+        <v>0.01840012691381001</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.251173666666667</v>
+      </c>
+      <c r="N14">
+        <v>6.753521</v>
+      </c>
+      <c r="O14">
+        <v>0.3141494305602834</v>
+      </c>
+      <c r="P14">
+        <v>0.3170115565808127</v>
+      </c>
+      <c r="Q14">
+        <v>0.7585025761388334</v>
+      </c>
+      <c r="R14">
+        <v>4.551015456833</v>
+      </c>
+      <c r="S14">
+        <v>0.008591541362587118</v>
+      </c>
+      <c r="T14">
+        <v>0.005833052874231417</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.3369365</v>
+      </c>
+      <c r="H15">
+        <v>0.6738730000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.02734858168376801</v>
+      </c>
+      <c r="J15">
+        <v>0.01840012691381001</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.194092</v>
+      </c>
+      <c r="N15">
+        <v>0.388184</v>
+      </c>
+      <c r="O15">
+        <v>0.02708537869785547</v>
+      </c>
+      <c r="P15">
+        <v>0.01822143058113926</v>
+      </c>
+      <c r="Q15">
+        <v>0.06539667915800002</v>
+      </c>
+      <c r="R15">
+        <v>0.2615867166320001</v>
+      </c>
+      <c r="S15">
+        <v>0.0007407466917540903</v>
+      </c>
+      <c r="T15">
+        <v>0.0003352766352441414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.3369365</v>
+      </c>
+      <c r="H16">
+        <v>0.6738730000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.02734858168376801</v>
+      </c>
+      <c r="J16">
+        <v>0.01840012691381001</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.502625</v>
+      </c>
+      <c r="N16">
+        <v>7.507875</v>
+      </c>
+      <c r="O16">
+        <v>0.3492392569694812</v>
+      </c>
+      <c r="P16">
+        <v>0.3524210764080203</v>
+      </c>
+      <c r="Q16">
+        <v>0.8432257083125001</v>
+      </c>
+      <c r="R16">
+        <v>5.059354249875001</v>
+      </c>
+      <c r="S16">
+        <v>0.009551198346408302</v>
+      </c>
+      <c r="T16">
+        <v>0.006484592533009109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>9.244773666666667</v>
+      </c>
+      <c r="H17">
+        <v>27.734321</v>
+      </c>
+      <c r="I17">
+        <v>0.7503830774367894</v>
+      </c>
+      <c r="J17">
+        <v>0.7572866493661955</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.289024</v>
+      </c>
+      <c r="N17">
+        <v>0.867072</v>
+      </c>
+      <c r="O17">
+        <v>0.04033306108839612</v>
+      </c>
+      <c r="P17">
+        <v>0.04070052412476965</v>
+      </c>
+      <c r="Q17">
+        <v>2.671961464234667</v>
+      </c>
+      <c r="R17">
+        <v>24.047653178112</v>
+      </c>
+      <c r="S17">
+        <v>0.0302652465019567</v>
+      </c>
+      <c r="T17">
+        <v>0.03082196354189481</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>9.244773666666667</v>
+      </c>
+      <c r="H18">
+        <v>27.734321</v>
+      </c>
+      <c r="I18">
+        <v>0.7503830774367894</v>
+      </c>
+      <c r="J18">
+        <v>0.7572866493661955</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.929018</v>
+      </c>
+      <c r="N18">
+        <v>5.787053999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.2691928726839837</v>
+      </c>
+      <c r="P18">
+        <v>0.271645412305258</v>
+      </c>
+      <c r="Q18">
+        <v>17.833334808926</v>
+      </c>
+      <c r="R18">
+        <v>160.500013280334</v>
+      </c>
+      <c r="S18">
+        <v>0.2019977762286575</v>
+      </c>
+      <c r="T18">
+        <v>0.2057134441003475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.001453333333333</v>
-      </c>
-      <c r="H11">
-        <v>3.00436</v>
-      </c>
-      <c r="I11">
-        <v>0.3150320656664583</v>
-      </c>
-      <c r="J11">
-        <v>0.3150320656664584</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.222540333333333</v>
-      </c>
-      <c r="N11">
-        <v>3.667621</v>
-      </c>
-      <c r="O11">
-        <v>0.1809636114043329</v>
-      </c>
-      <c r="P11">
-        <v>0.1880638685361299</v>
-      </c>
-      <c r="Q11">
-        <v>1.224317091951111</v>
-      </c>
-      <c r="R11">
-        <v>11.01885382756</v>
-      </c>
-      <c r="S11">
-        <v>0.05700934031116926</v>
-      </c>
-      <c r="T11">
-        <v>0.05924614898216227</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>9.244773666666667</v>
+      </c>
+      <c r="H19">
+        <v>27.734321</v>
+      </c>
+      <c r="I19">
+        <v>0.7503830774367894</v>
+      </c>
+      <c r="J19">
+        <v>0.7572866493661955</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>2.251173666666667</v>
+      </c>
+      <c r="N19">
+        <v>6.753521</v>
+      </c>
+      <c r="O19">
+        <v>0.3141494305602834</v>
+      </c>
+      <c r="P19">
+        <v>0.3170115565808127</v>
+      </c>
+      <c r="Q19">
+        <v>20.81159103269345</v>
+      </c>
+      <c r="R19">
+        <v>187.304319294241</v>
+      </c>
+      <c r="S19">
+        <v>0.2357324164788405</v>
+      </c>
+      <c r="T19">
+        <v>0.2400686194934458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>9.244773666666667</v>
+      </c>
+      <c r="H20">
+        <v>27.734321</v>
+      </c>
+      <c r="I20">
+        <v>0.7503830774367894</v>
+      </c>
+      <c r="J20">
+        <v>0.7572866493661955</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.194092</v>
+      </c>
+      <c r="N20">
+        <v>0.388184</v>
+      </c>
+      <c r="O20">
+        <v>0.02708537869785547</v>
+      </c>
+      <c r="P20">
+        <v>0.01822143058113926</v>
+      </c>
+      <c r="Q20">
+        <v>1.794336610510667</v>
+      </c>
+      <c r="R20">
+        <v>10.766019663064</v>
+      </c>
+      <c r="S20">
+        <v>0.02032440982083765</v>
+      </c>
+      <c r="T20">
+        <v>0.01379884611144968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9.244773666666667</v>
+      </c>
+      <c r="H21">
+        <v>27.734321</v>
+      </c>
+      <c r="I21">
+        <v>0.7503830774367894</v>
+      </c>
+      <c r="J21">
+        <v>0.7572866493661955</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.502625</v>
+      </c>
+      <c r="N21">
+        <v>7.507875</v>
+      </c>
+      <c r="O21">
+        <v>0.3492392569694812</v>
+      </c>
+      <c r="P21">
+        <v>0.3524210764080203</v>
+      </c>
+      <c r="Q21">
+        <v>23.13620169754167</v>
+      </c>
+      <c r="R21">
+        <v>208.225815277875</v>
+      </c>
+      <c r="S21">
+        <v>0.262063228406497</v>
+      </c>
+      <c r="T21">
+        <v>0.2668837761190577</v>
       </c>
     </row>
   </sheetData>
